--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/6_Amasya_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/6_Amasya_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{701A72B6-3E4D-471F-9E03-4CDE7201FBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A68379A-FE75-479C-B0D0-CCE25CA7ED37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="658" xr2:uid="{8DF30A00-58D9-43C4-8F75-D518C7022AF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="658" xr2:uid="{54A9A878-24E4-4297-A22F-1E834DF7740C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -928,15 +928,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{BF84C827-D3F9-4A92-86AD-5F9677B6581A}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{37079C64-72B0-4C9A-9E9C-ACCF55BF141C}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{E7E44024-1802-4029-B885-A70B6F32C910}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{1930E762-29E3-4F61-B178-7D2765365187}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{22369ECD-6601-4C8A-89C9-A8D3E94E3028}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{970C6EFC-39FA-49D1-9AD5-B810350F70C7}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{49B07A4E-D677-42DD-97CA-F3C8E68ABE2C}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{6968435F-5908-4ED2-9C74-CF9B05A20E2E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{221255D1-97C2-4DCC-91A6-26A2D20B1E51}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E54ACA1C-5F1A-4C41-8F53-FB346564F02F}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8A8575E3-DD63-43F7-9088-4BEAC7370DA3}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{EF3ECCB3-990F-42D7-A8D5-2E3F88679C88}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{B4B776F0-D437-4A45-BFC2-002371BB7DDA}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{277924D5-5258-4634-A7D1-C3DCBBFE0994}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{F772271E-E716-4E53-B7B3-6C3AB9A792A0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{6743B046-3C81-45DC-9AD9-ECD72FF385F3}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{F633123B-B0D1-45E3-8C83-DA2B41860373}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{E8C8CA67-3B26-4B69-913A-7A5628B56F1E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1306,7 +1306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A897C953-1CA8-49A6-BAE0-12287F464B8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6382C9CA-6AA9-4627-ACA5-EDFE1B201EB4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2573,7 +2573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5232485-8B9B-475C-B595-18B351E1CD9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B796AE3-47E8-4C45-B01A-F053C73DEC0A}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -3812,7 +3812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83DDBAD-8E1B-4DCB-9002-DF751750F821}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67A8594-AAE9-45B2-9C3B-9BD29809B9C2}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -5045,7 +5045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC141C0-9A52-42D2-A5AA-8FF08ADA8A09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170BB658-0006-4D6D-B356-D01BEBDB6468}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -6268,7 +6268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B699AED6-82BB-48D1-98A0-7E7CE057FCDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67200376-5407-4BB0-8400-8C3FE655FB0F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7538,7 +7538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185F9870-85CE-4E4A-A1AF-EC69654CC514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0F720D-381C-456B-8101-7FB2BDF9DB45}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8808,7 +8808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1D1783-29AB-4E56-9A8C-A116B0C8085B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FABD2A-E4F8-4B42-93B8-67529D195739}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10078,7 +10078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7517AEB-3D3C-4F73-89BA-F7A4077FD8F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63277942-34C9-43DC-87C4-284D6CEC9410}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11350,7 +11350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAD0F97-1B42-40CB-8794-E3107FA2DC65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9880B278-8A54-4B67-8E38-E0C3C24DE25B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12622,7 +12622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453649AF-A11E-4A7F-B941-02EA13E41D12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953FF5FC-3B02-4DEE-985A-E5F89C89479A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13880,7 +13880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04816923-D331-4A5D-BDB1-38AB07E446BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949A8FA7-5F60-43E9-B815-019E34F2E6C0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15138,7 +15138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E562BB-ED0C-483F-9D1B-1C9DE2063BF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F644C836-72F1-4F20-BF50-1265C5DFFCA0}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
